--- a/biology/Zoologie/Émile_Guyénot/Émile_Guyénot.xlsx
+++ b/biology/Zoologie/Émile_Guyénot/Émile_Guyénot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_Guy%C3%A9not</t>
+          <t>Émile_Guyénot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Émile Charles Louis Guyénot[1], né à Lons-le-Saunier le 9 juin 1885 et décédé à Genève le 20 mars 1963, est un biologiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Émile Charles Louis Guyénot, né à Lons-le-Saunier le 9 juin 1885 et décédé à Genève le 20 mars 1963, est un biologiste français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile_Guy%C3%A9not</t>
+          <t>Émile_Guyénot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils du magistrat Désiré Guyénot[2] et de Marie Augustine Billot, Émile Guyénot est nommé professeur à l'Université de Genève en 1918, où il enseigne la zoologie et l’anatomie comparée. Il devient par la suite vice-directeur de la station de biologie marine de Wimereux (Pas-de-Calais) dès 1921, puis fonde en 1922 une station de Zoologie expérimentale au chemin Sauter où ses étudiants travaillent sur l’hybridisme.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils du magistrat Désiré Guyénot et de Marie Augustine Billot, Émile Guyénot est nommé professeur à l'Université de Genève en 1918, où il enseigne la zoologie et l’anatomie comparée. Il devient par la suite vice-directeur de la station de biologie marine de Wimereux (Pas-de-Calais) dès 1921, puis fonde en 1922 une station de Zoologie expérimentale au chemin Sauter où ses étudiants travaillent sur l’hybridisme.
 Il a été élu membre de l'Académie des sciences.
 Émile Guyénot sera très efficacement secondé depuis 1922 par la chercheuse Kitty Ponse (1897-1982), qui lui succédera comme professeur à l'Université de Genève et deviendra en 1961 la première lauréate du prix Otto-Naegeli pour l'ensemble de son œuvre scientifique dans le domaine de l'endocrinologie[réf. nécessaire].
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89mile_Guy%C3%A9not</t>
+          <t>Émile_Guyénot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La variation et l’évolution, Paris, Doin, 1930, 2 vol. (bibliothèque de Biologie générale, dirigée par Maurice Caullery).
 L’Hérédité, Paris, Doin et Cie, 1931.
